--- a/Reports/ReportTemplate.xlsx
+++ b/Reports/ReportTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E28EF9-2391-48BB-8E04-B23BC64CDA6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE8C084-1715-4F1A-8412-92D1DAF5246A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Workflow Filename</t>
     <phoneticPr fontId="1"/>
@@ -38,7 +38,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Activity</t>
+    <t>Target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Severity</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -86,7 +90,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -102,13 +106,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{151AC480-3815-49A6-B161-4F094CB6C6F9}" name="テーブル1" displayName="テーブル1" ref="A1:E2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:E2" xr:uid="{96568595-11FA-4665-A7F5-5DAA0257F387}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{151AC480-3815-49A6-B161-4F094CB6C6F9}" name="テーブル1" displayName="テーブル1" ref="A1:F2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{96568595-11FA-4665-A7F5-5DAA0257F387}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2633DBB4-FC06-45DE-B4B7-612ADA86082E}" name="Workflow Filename"/>
     <tableColumn id="2" xr3:uid="{DB7747F9-D92B-4CC1-AB9E-7AE69ADF34C2}" name="Internal Path"/>
-    <tableColumn id="3" xr3:uid="{3B498D3F-8398-47B2-ACE5-B119F71EB4E8}" name="Activity"/>
+    <tableColumn id="3" xr3:uid="{3B498D3F-8398-47B2-ACE5-B119F71EB4E8}" name="Target"/>
     <tableColumn id="4" xr3:uid="{A0581726-DF95-4DB9-BDDE-2D527D8D8BB3}" name="Issue"/>
+    <tableColumn id="6" xr3:uid="{F5FBCE47-2F6A-4F15-B22D-7EF25F28710A}" name="Severity"/>
     <tableColumn id="5" xr3:uid="{B19192A5-5CE8-4EE7-A9B5-D071ADEE6AB3}" name="Suggestion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -378,20 +383,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="20.4140625" customWidth="1"/>
-    <col min="4" max="4" width="36.08203125" customWidth="1"/>
-    <col min="5" max="5" width="51.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="36.125" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="51.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,6 +413,9 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
